--- a/EmployeeManagement/wwwroot/EmployeeData.xlsx
+++ b/EmployeeManagement/wwwroot/EmployeeData.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/sainikhil_godlaveti_capgemini_com/Documents/Documents/DotNet/Employee/EmployeeManagement/wwwroot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_D9C7209A972AB5CCBE7452E209832444E18E3FD2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94392C81-9F0C-45AA-92ED-159155C1BC5F}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_D9C7209A972AB5CCBE7452E209832444E18E3FD2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1020CC2-4679-4431-B649-D4531C21E0C9}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" fullPrecision="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -55,27 +55,36 @@
     <t>sainikhilgodl@gmail.com</t>
   </si>
   <si>
+    <t>7036404155</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>13-11-2024</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>08-11-2024</t>
+  </si>
+  <si>
     <t>07036404155</t>
   </si>
   <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>13-11-2024</t>
-  </si>
-  <si>
-    <t>Designer</t>
-  </si>
-  <si>
-    <t>08-11-2024</t>
-  </si>
-  <si>
     <t>07-11-2024</t>
   </si>
   <si>
+    <t>new1</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
@@ -88,15 +97,26 @@
     <t>25-11-2024</t>
   </si>
   <si>
-    <t>new1</t>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>11-10-2024</t>
+  </si>
+  <si>
+    <t>01-01-0001</t>
+  </si>
+  <si>
+    <t>01-01-2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -122,8 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,6 +160,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,172 +483,262 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G9" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>23456</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>21</v>
+      <c r="H9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/EmployeeManagement/wwwroot/EmployeeData.xlsx
+++ b/EmployeeManagement/wwwroot/EmployeeData.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/sainikhil_godlaveti_capgemini_com/Documents/Documents/DotNet/Employee/EmployeeManagement/wwwroot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_D9C7209A972AB5CCBE7452E209832444E18E3FD2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1020CC2-4679-4431-B649-D4531C21E0C9}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_D9C7209A972AB5CCBE7452E209832444E18E3FD2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{405A0056-8905-462F-AB72-7980CCA352E0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -55,68 +55,24 @@
     <t>sainikhilgodl@gmail.com</t>
   </si>
   <si>
-    <t>7036404155</t>
+    <t>07036404155</t>
   </si>
   <si>
     <t>Manager</t>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>13-11-2024</t>
-  </si>
-  <si>
-    <t>Designer</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>08-11-2024</t>
-  </si>
-  <si>
-    <t>07036404155</t>
-  </si>
-  <si>
-    <t>07-11-2024</t>
-  </si>
-  <si>
-    <t>new1</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>new@mail.com</t>
-  </si>
-  <si>
-    <t>Analyst</t>
-  </si>
-  <si>
-    <t>25-11-2024</t>
-  </si>
-  <si>
-    <t>Operations</t>
-  </si>
-  <si>
     <t>Finance</t>
   </si>
   <si>
-    <t>11-10-2024</t>
-  </si>
-  <si>
-    <t>01-01-0001</t>
-  </si>
-  <si>
-    <t>01-01-2024</t>
+    <t>06-01-2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -144,7 +100,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -160,10 +116,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,249 +435,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7265625" customWidth="1" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="0" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -734,11 +504,12 @@
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color theme="0"/>
+        <color rgb="FFF8696B" theme="0"/>
+        <color rgb="FF63BE7B" theme="0"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>